--- a/data/trans_orig/P2404-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2404-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{855156D4-B93D-46F5-B97B-348AF0D46D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F4C3DAF-BDCF-4E17-B3A6-07B16C245FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2BDD6F24-30F9-4E7D-B270-61B9BAABF3D4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A003C73-184F-4D56-BCA1-F322B19B02DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="224">
   <si>
     <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2007 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -76,367 +76,373 @@
     <t>5,17%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 33,26%)</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>98,63%</t>
   </si>
   <si>
-    <t>95,59%</t>
+    <t>95,2%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -445,19 +451,19 @@
     <t>97,83%</t>
   </si>
   <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
   </si>
   <si>
     <t>1,7%</t>
@@ -466,31 +472,31 @@
     <t>1,0%</t>
   </si>
   <si>
-    <t>2,69%</t>
+    <t>2,7%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
   </si>
   <si>
     <t>93,87%</t>
   </si>
   <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
   <si>
     <t>98,3%</t>
   </si>
   <si>
-    <t>97,31%</t>
+    <t>97,3%</t>
   </si>
   <si>
     <t>99,0%</t>
@@ -499,10 +505,10 @@
     <t>95,72%</t>
   </si>
   <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2015 (Tasa respuesta: 45,99%)</t>
@@ -511,10 +517,10 @@
     <t>4,85%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
   </si>
   <si>
     <t>2,07%</t>
@@ -523,205 +529,187 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
   </si>
   <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>94,78%</t>
-  </si>
-  <si>
     <t>99,47%</t>
   </si>
   <si>
     <t>95,94%</t>
   </si>
   <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
     <t>96,65%</t>
   </si>
   <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD65755-B99F-4329-B920-39CCE445060B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C942C059-2FA4-4F66-8572-F95D9DA12641}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1737,13 +1725,13 @@
         <v>31944</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -1752,13 +1740,13 @@
         <v>105617</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,13 +1761,13 @@
         <v>1311608</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>815</v>
@@ -1788,13 +1776,13 @@
         <v>831386</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>2092</v>
@@ -1803,13 +1791,13 @@
         <v>2142995</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,7 +1853,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1884,7 +1872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC9A8D0-A563-4376-A4D1-938BE0FF18BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC890B13-F60D-411D-8675-D00EB691872F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1901,7 +1889,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2008,13 +1996,13 @@
         <v>19376</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2023,13 +2011,13 @@
         <v>3047</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -2038,13 +2026,13 @@
         <v>22423</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,13 +2047,13 @@
         <v>315629</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -2074,13 +2062,13 @@
         <v>196990</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" s="7">
         <v>482</v>
@@ -2089,7 +2077,7 @@
         <v>512619</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>101</v>
@@ -2318,13 +2306,13 @@
         <v>4613</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2333,13 +2321,13 @@
         <v>1902</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2348,13 +2336,13 @@
         <v>6515</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,13 +2357,13 @@
         <v>156823</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>124</v>
@@ -2384,13 +2372,13 @@
         <v>136506</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>266</v>
@@ -2399,13 +2387,13 @@
         <v>293329</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,13 +2461,13 @@
         <v>82847</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -2488,13 +2476,13 @@
         <v>16545</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>91</v>
@@ -2503,13 +2491,13 @@
         <v>99392</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,13 +2512,13 @@
         <v>1267639</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>879</v>
@@ -2539,13 +2527,13 @@
         <v>956644</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>2069</v>
@@ -2554,13 +2542,13 @@
         <v>2224283</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,7 +2604,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2635,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF51BF99-20DC-485E-BC3D-F38BCBD238E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B1213B-87F7-4683-AAE7-81E16A1DADEB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2652,7 +2640,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2759,13 +2747,13 @@
         <v>22541</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2774,13 +2762,13 @@
         <v>3835</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -2789,13 +2777,13 @@
         <v>26376</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2798,13 @@
         <v>441793</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
         <v>174</v>
@@ -2825,10 +2813,10 @@
         <v>181053</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>170</v>
@@ -2929,13 +2917,13 @@
         <v>14636</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -2944,13 +2932,13 @@
         <v>67534</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +2953,13 @@
         <v>1104188</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>842</v>
@@ -2980,13 +2968,13 @@
         <v>875029</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>1869</v>
@@ -2995,13 +2983,13 @@
         <v>1979216</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3057,13 @@
         <v>7056</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3084,13 +3072,13 @@
         <v>4837</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3099,13 +3087,13 @@
         <v>11892</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3108,13 @@
         <v>227450</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>210</v>
@@ -3135,13 +3123,13 @@
         <v>219048</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>412</v>
@@ -3150,13 +3138,13 @@
         <v>446499</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3212,13 @@
         <v>82494</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -3239,13 +3227,13 @@
         <v>23308</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -3254,13 +3242,13 @@
         <v>105802</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3263,13 @@
         <v>1773432</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>1226</v>
@@ -3290,13 +3278,13 @@
         <v>1275130</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>2900</v>
@@ -3305,13 +3293,13 @@
         <v>3048562</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,7 +3355,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2404-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2404-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F4C3DAF-BDCF-4E17-B3A6-07B16C245FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7169829-53D8-449E-A167-71A1C4A6E39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A003C73-184F-4D56-BCA1-F322B19B02DC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8EF0A841-1AB9-4196-BA50-265A816D4710}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,28 +76,28 @@
     <t>5,17%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>94,83%</t>
   </si>
   <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
   </si>
   <si>
     <t>95,69%</t>
   </si>
   <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,25 +139,25 @@
     <t>5,73%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>3,64%</t>
+    <t>3,72%</t>
   </si>
   <si>
     <t>6,1%</t>
@@ -166,19 +166,19 @@
     <t>94,27%</t>
   </si>
   <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
   </si>
   <si>
     <t>95,25%</t>
@@ -187,7 +187,7 @@
     <t>93,9%</t>
   </si>
   <si>
-    <t>96,36%</t>
+    <t>96,28%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,427 +196,430 @@
     <t>3,86%</t>
   </si>
   <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 33,26%)</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2016 (Tasa respuesta: 45,99%)</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2015 (Tasa respuesta: 45,99%)</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
   </si>
   <si>
     <t>96,7%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>97,4%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
+    <t>6,36%</t>
   </si>
   <si>
     <t>2,16%</t>
@@ -625,28 +628,28 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>5,35%</t>
+    <t>5,26%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>4,76%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
   </si>
   <si>
     <t>96,99%</t>
   </si>
   <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>93,64%</t>
   </si>
   <si>
     <t>97,84%</t>
   </si>
   <si>
-    <t>94,65%</t>
+    <t>94,74%</t>
   </si>
   <si>
     <t>99,54%</t>
@@ -655,7 +658,10 @@
     <t>97,41%</t>
   </si>
   <si>
-    <t>95,24%</t>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -664,31 +670,28 @@
     <t>3,55%</t>
   </si>
   <si>
-    <t>5,52%</t>
+    <t>5,51%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
+    <t>4,03%</t>
   </si>
   <si>
     <t>95,56%</t>
   </si>
   <si>
-    <t>94,48%</t>
+    <t>94,49%</t>
   </si>
   <si>
     <t>96,45%</t>
@@ -697,19 +700,16 @@
     <t>98,2%</t>
   </si>
   <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
   </si>
   <si>
     <t>96,65%</t>
   </si>
   <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>95,97%</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C942C059-2FA4-4F66-8572-F95D9DA12641}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DE6B1F-189F-4DF8-B182-1A2AD7DD23E9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1872,7 +1872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC890B13-F60D-411D-8675-D00EB691872F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAE902C-15F3-499D-B2DD-F52A9E1DDCCD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2026,13 +2026,13 @@
         <v>22423</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,10 +2047,10 @@
         <v>315629</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>81</v>
@@ -2062,13 +2062,13 @@
         <v>196990</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>482</v>
@@ -2077,13 +2077,13 @@
         <v>512619</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,13 +2151,13 @@
         <v>58858</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -2166,13 +2166,13 @@
         <v>11596</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -2181,13 +2181,13 @@
         <v>70453</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,13 +2202,13 @@
         <v>795187</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>572</v>
@@ -2217,13 +2217,13 @@
         <v>623148</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>1321</v>
@@ -2232,13 +2232,13 @@
         <v>1418336</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,13 +2306,13 @@
         <v>4613</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2321,13 +2321,13 @@
         <v>1902</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2336,13 +2336,13 @@
         <v>6515</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,13 +2357,13 @@
         <v>156823</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>124</v>
@@ -2372,13 +2372,13 @@
         <v>136506</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>266</v>
@@ -2387,13 +2387,13 @@
         <v>293329</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2461,13 @@
         <v>82847</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -2476,13 +2476,13 @@
         <v>16545</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>91</v>
@@ -2491,13 +2491,13 @@
         <v>99392</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,13 +2512,13 @@
         <v>1267639</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>879</v>
@@ -2527,13 +2527,13 @@
         <v>956644</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>2069</v>
@@ -2542,13 +2542,13 @@
         <v>2224283</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B1213B-87F7-4683-AAE7-81E16A1DADEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9944ECD6-FADB-4ED0-B7FC-58DAC4734249}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2640,7 +2640,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2747,13 +2747,13 @@
         <v>22541</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2762,13 +2762,13 @@
         <v>3835</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -2777,13 +2777,13 @@
         <v>26376</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2798,13 @@
         <v>441793</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>174</v>
@@ -2813,13 +2813,13 @@
         <v>181053</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>619</v>
@@ -2828,13 +2828,13 @@
         <v>622846</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2902,13 @@
         <v>52898</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -2917,13 +2917,13 @@
         <v>14636</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -2932,13 +2932,13 @@
         <v>67534</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2953,13 @@
         <v>1104188</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>842</v>
@@ -2968,13 +2968,13 @@
         <v>875029</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>1869</v>
@@ -2983,13 +2983,13 @@
         <v>1979216</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3057,13 @@
         <v>7056</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3072,13 +3072,13 @@
         <v>4837</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3087,13 +3087,13 @@
         <v>11892</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3108,13 @@
         <v>227450</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>210</v>
@@ -3123,13 +3123,13 @@
         <v>219048</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>412</v>
@@ -3138,13 +3138,13 @@
         <v>446499</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3212,13 @@
         <v>82494</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -3227,13 +3227,13 @@
         <v>23308</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -3242,13 +3242,13 @@
         <v>105802</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3263,13 @@
         <v>1773432</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>1226</v>
@@ -3278,13 +3278,13 @@
         <v>1275130</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>2900</v>
@@ -3293,13 +3293,13 @@
         <v>3048562</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P2404-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2404-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7169829-53D8-449E-A167-71A1C4A6E39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D0EFEBD-8DE8-42B5-8D5F-5C9C14AA90B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8EF0A841-1AB9-4196-BA50-265A816D4710}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE4F7291-2991-4EE9-85E9-51EA2D630F59}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="224">
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2007 (Tasa respuesta: 33,7%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="206">
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -70,646 +70,592 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2016 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
   </si>
   <si>
     <t>95,69%</t>
   </si>
   <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2016 (Tasa respuesta: 45,99%)</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DE6B1F-189F-4DF8-B182-1A2AD7DD23E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2B4C3C-7D93-4839-A4DA-3A2ED3E3A7B5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1290,10 +1236,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>347</v>
+        <v>1018</v>
       </c>
       <c r="D5" s="7">
-        <v>355220</v>
+        <v>1011302</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1305,10 +1251,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>168</v>
+        <v>1287</v>
       </c>
       <c r="I5" s="7">
-        <v>172166</v>
+        <v>1310738</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1320,10 +1266,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>515</v>
+        <v>2305</v>
       </c>
       <c r="N5" s="7">
-        <v>527386</v>
+        <v>2322040</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1341,10 +1287,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>366</v>
+        <v>1037</v>
       </c>
       <c r="D6" s="7">
-        <v>374599</v>
+        <v>1030681</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1356,10 +1302,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>172</v>
+        <v>1291</v>
       </c>
       <c r="I6" s="7">
-        <v>176541</v>
+        <v>1315113</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1371,10 +1317,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>538</v>
+        <v>2328</v>
       </c>
       <c r="N6" s="7">
-        <v>551140</v>
+        <v>2345794</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1415,13 +1361,13 @@
         <v>17991</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -1430,13 +1376,13 @@
         <v>64848</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1445,49 +1391,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>752</v>
+        <v>1603</v>
       </c>
       <c r="D8" s="7">
-        <v>770948</v>
+        <v>1646554</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>1537</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1569682</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>523</v>
-      </c>
-      <c r="I8" s="7">
-        <v>530065</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>3140</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3216238</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="7">
-        <v>1275</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1301014</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1496,10 +1442,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>798</v>
+        <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>817806</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1511,10 +1457,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>540</v>
+        <v>1554</v>
       </c>
       <c r="I9" s="7">
-        <v>548056</v>
+        <v>1587673</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1526,10 +1472,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1338</v>
+        <v>3203</v>
       </c>
       <c r="N9" s="7">
-        <v>1365862</v>
+        <v>3281086</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1543,7 +1489,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1555,13 +1501,13 @@
         <v>7436</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -1570,28 +1516,28 @@
         <v>9579</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>17014</v>
+        <v>17015</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,49 +1546,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>178</v>
+        <v>520</v>
       </c>
       <c r="D11" s="7">
-        <v>185440</v>
+        <v>543972</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>443</v>
+      </c>
+      <c r="I11" s="7">
+        <v>466833</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>124</v>
-      </c>
-      <c r="I11" s="7">
-        <v>129155</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>963</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1010805</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>302</v>
-      </c>
-      <c r="N11" s="7">
-        <v>314595</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1651,10 +1597,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>185</v>
+        <v>527</v>
       </c>
       <c r="D12" s="7">
-        <v>192876</v>
+        <v>551408</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1666,10 +1612,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>133</v>
+        <v>452</v>
       </c>
       <c r="I12" s="7">
-        <v>138734</v>
+        <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1681,10 +1627,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>318</v>
+        <v>979</v>
       </c>
       <c r="N12" s="7">
-        <v>331609</v>
+        <v>1027820</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1710,13 +1656,13 @@
         <v>73673</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -1725,13 +1671,13 @@
         <v>31944</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -1740,13 +1686,13 @@
         <v>105617</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,49 +1701,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1277</v>
+        <v>3141</v>
       </c>
       <c r="D14" s="7">
-        <v>1311608</v>
+        <v>3201828</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3267</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3347254</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="7">
+        <v>6408</v>
+      </c>
+      <c r="N14" s="7">
+        <v>6549081</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="7">
-        <v>815</v>
-      </c>
-      <c r="I14" s="7">
-        <v>831386</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="7">
-        <v>2092</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2142995</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1806,10 +1752,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>1349</v>
+        <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>1385281</v>
+        <v>3275501</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1821,10 +1767,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>845</v>
+        <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>863330</v>
+        <v>3379198</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1836,10 +1782,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>2194</v>
+        <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>2248612</v>
+        <v>6654698</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1853,7 +1799,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1872,7 +1818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAE902C-15F3-499D-B2DD-F52A9E1DDCCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD0B07F-9DFC-49A8-9BFC-4C9DD53FA43B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1889,7 +1835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1996,13 +1942,13 @@
         <v>19376</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2011,13 +1957,13 @@
         <v>3047</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -2026,13 +1972,13 @@
         <v>22423</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,49 +1987,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>299</v>
+        <v>889</v>
       </c>
       <c r="D5" s="7">
-        <v>315629</v>
+        <v>955267</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H5" s="7">
-        <v>183</v>
+        <v>1244</v>
       </c>
       <c r="I5" s="7">
-        <v>196990</v>
+        <v>1334749</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="M5" s="7">
-        <v>482</v>
+        <v>2133</v>
       </c>
       <c r="N5" s="7">
-        <v>512619</v>
+        <v>2290017</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,10 +2038,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>318</v>
+        <v>908</v>
       </c>
       <c r="D6" s="7">
-        <v>335005</v>
+        <v>974643</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2107,10 +2053,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>186</v>
+        <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>200037</v>
+        <v>1337796</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2122,10 +2068,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>504</v>
+        <v>2155</v>
       </c>
       <c r="N6" s="7">
-        <v>535042</v>
+        <v>2312440</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2151,13 +2097,13 @@
         <v>58858</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -2166,13 +2112,13 @@
         <v>11596</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -2181,13 +2127,13 @@
         <v>70453</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,49 +2142,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>749</v>
+        <v>1802</v>
       </c>
       <c r="D8" s="7">
-        <v>795187</v>
+        <v>1903129</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H8" s="7">
-        <v>572</v>
+        <v>1620</v>
       </c>
       <c r="I8" s="7">
-        <v>623148</v>
+        <v>1742158</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
-        <v>1321</v>
+        <v>3422</v>
       </c>
       <c r="N8" s="7">
-        <v>1418336</v>
+        <v>3645287</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,10 +2193,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>801</v>
+        <v>1854</v>
       </c>
       <c r="D9" s="7">
-        <v>854045</v>
+        <v>1961987</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2262,10 +2208,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>583</v>
+        <v>1631</v>
       </c>
       <c r="I9" s="7">
-        <v>634744</v>
+        <v>1753754</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2277,10 +2223,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1384</v>
+        <v>3485</v>
       </c>
       <c r="N9" s="7">
-        <v>1488789</v>
+        <v>3715740</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2294,7 +2240,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2306,13 +2252,13 @@
         <v>4613</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2321,13 +2267,13 @@
         <v>1902</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2336,13 +2282,13 @@
         <v>6515</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,49 +2297,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>142</v>
+        <v>434</v>
       </c>
       <c r="D11" s="7">
-        <v>156823</v>
+        <v>476568</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="H11" s="7">
+        <v>409</v>
+      </c>
+      <c r="I11" s="7">
+        <v>455715</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" s="7">
+        <v>843</v>
+      </c>
+      <c r="N11" s="7">
+        <v>932283</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I11" s="7">
-        <v>136506</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M11" s="7">
-        <v>266</v>
-      </c>
-      <c r="N11" s="7">
-        <v>293329</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,10 +2348,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>146</v>
+        <v>438</v>
       </c>
       <c r="D12" s="7">
-        <v>161436</v>
+        <v>481181</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2417,10 +2363,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>126</v>
+        <v>411</v>
       </c>
       <c r="I12" s="7">
-        <v>138408</v>
+        <v>457617</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2432,10 +2378,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>272</v>
+        <v>849</v>
       </c>
       <c r="N12" s="7">
-        <v>299844</v>
+        <v>938798</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2461,13 +2407,13 @@
         <v>82847</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -2476,13 +2422,13 @@
         <v>16545</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>91</v>
@@ -2491,13 +2437,13 @@
         <v>99392</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,49 +2452,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1190</v>
+        <v>3125</v>
       </c>
       <c r="D14" s="7">
-        <v>1267639</v>
+        <v>3334965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
-        <v>879</v>
+        <v>3273</v>
       </c>
       <c r="I14" s="7">
-        <v>956644</v>
+        <v>3532622</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
-        <v>2069</v>
+        <v>6398</v>
       </c>
       <c r="N14" s="7">
-        <v>2224283</v>
+        <v>6867586</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,10 +2503,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>1265</v>
+        <v>3200</v>
       </c>
       <c r="D15" s="7">
-        <v>1350486</v>
+        <v>3417812</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2572,10 +2518,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>895</v>
+        <v>3289</v>
       </c>
       <c r="I15" s="7">
-        <v>973189</v>
+        <v>3549167</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2587,10 +2533,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>2160</v>
+        <v>6489</v>
       </c>
       <c r="N15" s="7">
-        <v>2323675</v>
+        <v>6966978</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2604,7 +2550,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +2569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9944ECD6-FADB-4ED0-B7FC-58DAC4734249}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883C06E0-3C53-4A1C-924E-D1AC3D04280B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2640,7 +2586,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2747,13 +2693,13 @@
         <v>22541</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2762,13 +2708,13 @@
         <v>3835</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -2777,13 +2723,13 @@
         <v>26376</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,49 +2738,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>445</v>
+        <v>738</v>
       </c>
       <c r="D5" s="7">
-        <v>441793</v>
+        <v>729995</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="H5" s="7">
-        <v>174</v>
+        <v>886</v>
       </c>
       <c r="I5" s="7">
-        <v>181053</v>
+        <v>988431</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
-        <v>619</v>
+        <v>1624</v>
       </c>
       <c r="N5" s="7">
-        <v>622846</v>
+        <v>1718426</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,10 +2789,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>467</v>
+        <v>760</v>
       </c>
       <c r="D6" s="7">
-        <v>464334</v>
+        <v>752536</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2858,10 +2804,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>178</v>
+        <v>890</v>
       </c>
       <c r="I6" s="7">
-        <v>184888</v>
+        <v>992266</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2873,10 +2819,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>645</v>
+        <v>1650</v>
       </c>
       <c r="N6" s="7">
-        <v>649222</v>
+        <v>1744802</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2902,13 +2848,13 @@
         <v>52898</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -2917,13 +2863,13 @@
         <v>14636</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -2932,13 +2878,13 @@
         <v>67534</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,49 +2893,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1027</v>
+        <v>1897</v>
       </c>
       <c r="D8" s="7">
-        <v>1104188</v>
+        <v>2018620</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
-        <v>842</v>
+        <v>1889</v>
       </c>
       <c r="I8" s="7">
-        <v>875029</v>
+        <v>1968149</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="M8" s="7">
-        <v>1869</v>
+        <v>3786</v>
       </c>
       <c r="N8" s="7">
-        <v>1979216</v>
+        <v>3986769</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,10 +2944,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1078</v>
+        <v>1948</v>
       </c>
       <c r="D9" s="7">
-        <v>1157086</v>
+        <v>2071518</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3013,10 +2959,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>856</v>
+        <v>1903</v>
       </c>
       <c r="I9" s="7">
-        <v>889665</v>
+        <v>1982785</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3028,10 +2974,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1934</v>
+        <v>3851</v>
       </c>
       <c r="N9" s="7">
-        <v>2046750</v>
+        <v>4054303</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3045,7 +2991,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3057,13 +3003,13 @@
         <v>7056</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3072,13 +3018,13 @@
         <v>4837</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3087,13 +3033,13 @@
         <v>11892</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,49 +3048,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>202</v>
+        <v>491</v>
       </c>
       <c r="D11" s="7">
-        <v>227450</v>
+        <v>535761</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
-        <v>210</v>
+        <v>520</v>
       </c>
       <c r="I11" s="7">
-        <v>219048</v>
+        <v>542447</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
-        <v>412</v>
+        <v>1011</v>
       </c>
       <c r="N11" s="7">
-        <v>446499</v>
+        <v>1078208</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,10 +3099,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>208</v>
+        <v>497</v>
       </c>
       <c r="D12" s="7">
-        <v>234506</v>
+        <v>542817</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3168,10 +3114,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>214</v>
+        <v>524</v>
       </c>
       <c r="I12" s="7">
-        <v>223885</v>
+        <v>547284</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3183,10 +3129,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>422</v>
+        <v>1021</v>
       </c>
       <c r="N12" s="7">
-        <v>458391</v>
+        <v>1090100</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3212,13 +3158,13 @@
         <v>82494</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>102</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -3227,13 +3173,13 @@
         <v>23308</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -3242,13 +3188,13 @@
         <v>105802</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,49 +3203,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1674</v>
+        <v>3126</v>
       </c>
       <c r="D14" s="7">
-        <v>1773432</v>
+        <v>3284378</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>107</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="H14" s="7">
-        <v>1226</v>
+        <v>3295</v>
       </c>
       <c r="I14" s="7">
-        <v>1275130</v>
+        <v>3499026</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
-        <v>2900</v>
+        <v>6421</v>
       </c>
       <c r="N14" s="7">
-        <v>3048562</v>
+        <v>6783404</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,10 +3254,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>1753</v>
+        <v>3205</v>
       </c>
       <c r="D15" s="7">
-        <v>1855926</v>
+        <v>3366872</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3323,10 +3269,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1248</v>
+        <v>3317</v>
       </c>
       <c r="I15" s="7">
-        <v>1298438</v>
+        <v>3522334</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3338,10 +3284,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>3001</v>
+        <v>6522</v>
       </c>
       <c r="N15" s="7">
-        <v>3154364</v>
+        <v>6889206</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3355,7 +3301,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
